--- a/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2030.xlsx
+++ b/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2030.xlsx
@@ -715,55 +715,55 @@
         <v>1590.22</v>
       </c>
       <c r="C5" t="n">
-        <v>6514.179999999998</v>
+        <v>6514.169999999997</v>
       </c>
       <c r="D5" t="n">
-        <v>797.6546938775508</v>
+        <v>797.6534693877549</v>
       </c>
       <c r="E5" t="n">
-        <v>664.7122448979591</v>
+        <v>664.7112244897958</v>
       </c>
       <c r="F5" t="n">
-        <v>598.2410204081631</v>
+        <v>598.2401020408161</v>
       </c>
       <c r="G5" t="n">
-        <v>598.2410204081631</v>
+        <v>598.2401020408161</v>
       </c>
       <c r="H5" t="n">
-        <v>531.7697959183672</v>
+        <v>531.7689795918366</v>
       </c>
       <c r="I5" t="n">
-        <v>465.2985714285713</v>
+        <v>465.297857142857</v>
       </c>
       <c r="J5" t="n">
-        <v>398.8273469387754</v>
+        <v>398.8267346938774</v>
       </c>
       <c r="K5" t="n">
-        <v>332.3561224489795</v>
+        <v>332.3556122448979</v>
       </c>
       <c r="L5" t="n">
-        <v>332.3561224489795</v>
+        <v>332.3556122448979</v>
       </c>
       <c r="M5" t="n">
-        <v>731.1834693877548</v>
+        <v>731.1823469387753</v>
       </c>
       <c r="N5" t="n">
-        <v>265.8848979591836</v>
+        <v>265.8844897959183</v>
       </c>
       <c r="O5" t="n">
-        <v>199.4136734693877</v>
+        <v>199.4133673469387</v>
       </c>
       <c r="P5" t="n">
-        <v>199.4136734693877</v>
+        <v>199.4133673469387</v>
       </c>
       <c r="Q5" t="n">
-        <v>132.9424489795918</v>
+        <v>132.9422448979591</v>
       </c>
       <c r="R5" t="n">
-        <v>132.9424489795918</v>
+        <v>132.9422448979591</v>
       </c>
       <c r="S5" t="n">
-        <v>132.9424489795918</v>
+        <v>132.9422448979591</v>
       </c>
     </row>
     <row r="6">
@@ -771,58 +771,58 @@
         <v>2303</v>
       </c>
       <c r="B6" t="n">
-        <v>3041.58</v>
+        <v>3041.57</v>
       </c>
       <c r="C6" t="n">
-        <v>12732.23</v>
+        <v>12732.22</v>
       </c>
       <c r="D6" t="n">
-        <v>1512.740198019802</v>
+        <v>1512.73900990099</v>
       </c>
       <c r="E6" t="n">
-        <v>1260.616831683168</v>
+        <v>1260.615841584158</v>
       </c>
       <c r="F6" t="n">
-        <v>1134.555148514851</v>
+        <v>1134.554257425742</v>
       </c>
       <c r="G6" t="n">
-        <v>1134.555148514851</v>
+        <v>1134.554257425742</v>
       </c>
       <c r="H6" t="n">
-        <v>1134.555148514851</v>
+        <v>1134.554257425742</v>
       </c>
       <c r="I6" t="n">
-        <v>1008.493465346535</v>
+        <v>1008.492673267327</v>
       </c>
       <c r="J6" t="n">
-        <v>882.4317821782179</v>
+        <v>882.4310891089109</v>
       </c>
       <c r="K6" t="n">
-        <v>630.3084158415842</v>
+        <v>630.3079207920792</v>
       </c>
       <c r="L6" t="n">
-        <v>504.2467326732673</v>
+        <v>504.2463366336634</v>
       </c>
       <c r="M6" t="n">
-        <v>1386.678514851485</v>
+        <v>1386.677425742574</v>
       </c>
       <c r="N6" t="n">
-        <v>504.2467326732673</v>
+        <v>504.2463366336634</v>
       </c>
       <c r="O6" t="n">
-        <v>504.2467326732673</v>
+        <v>504.2463366336634</v>
       </c>
       <c r="P6" t="n">
-        <v>378.1850495049505</v>
+        <v>378.1847524752475</v>
       </c>
       <c r="Q6" t="n">
-        <v>252.1233663366337</v>
+        <v>252.1231683168317</v>
       </c>
       <c r="R6" t="n">
-        <v>252.1233663366337</v>
+        <v>252.1231683168317</v>
       </c>
       <c r="S6" t="n">
-        <v>252.1233663366337</v>
+        <v>252.1231683168317</v>
       </c>
     </row>
     <row r="7">
@@ -830,58 +830,58 @@
         <v>2101</v>
       </c>
       <c r="B7" t="n">
-        <v>1353.34</v>
+        <v>1353.33</v>
       </c>
       <c r="C7" t="n">
-        <v>7049.919999999999</v>
+        <v>7049.899999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>925.7470707070706</v>
+        <v>925.7444444444443</v>
       </c>
       <c r="E7" t="n">
-        <v>783.3244444444445</v>
+        <v>783.3222222222222</v>
       </c>
       <c r="F7" t="n">
-        <v>640.9018181818182</v>
+        <v>640.8999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>640.9018181818182</v>
+        <v>640.8999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>640.9018181818182</v>
+        <v>640.8999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>569.690505050505</v>
+        <v>569.6888888888888</v>
       </c>
       <c r="J7" t="n">
-        <v>427.2678787878788</v>
+        <v>427.2666666666666</v>
       </c>
       <c r="K7" t="n">
-        <v>356.0565656565657</v>
+        <v>356.0555555555555</v>
       </c>
       <c r="L7" t="n">
-        <v>284.8452525252525</v>
+        <v>284.8444444444444</v>
       </c>
       <c r="M7" t="n">
-        <v>854.5357575757575</v>
+        <v>854.5333333333332</v>
       </c>
       <c r="N7" t="n">
-        <v>284.8452525252525</v>
+        <v>284.8444444444444</v>
       </c>
       <c r="O7" t="n">
-        <v>213.6339393939394</v>
+        <v>213.6333333333333</v>
       </c>
       <c r="P7" t="n">
-        <v>142.4226262626262</v>
+        <v>142.4222222222222</v>
       </c>
       <c r="Q7" t="n">
-        <v>142.4226262626262</v>
+        <v>142.4222222222222</v>
       </c>
       <c r="R7" t="n">
-        <v>71.21131313131312</v>
+        <v>71.21111111111109</v>
       </c>
       <c r="S7" t="n">
-        <v>71.21131313131312</v>
+        <v>71.21111111111109</v>
       </c>
     </row>
     <row r="8">
@@ -892,55 +892,55 @@
         <v>453.82</v>
       </c>
       <c r="C8" t="n">
-        <v>1763.46</v>
+        <v>1763.45</v>
       </c>
       <c r="D8" t="n">
-        <v>192.0599999999999</v>
+        <v>192.0589108910891</v>
       </c>
       <c r="E8" t="n">
-        <v>157.14</v>
+        <v>157.1391089108911</v>
       </c>
       <c r="F8" t="n">
-        <v>139.68</v>
+        <v>139.6792079207921</v>
       </c>
       <c r="G8" t="n">
-        <v>139.68</v>
+        <v>139.6792079207921</v>
       </c>
       <c r="H8" t="n">
-        <v>157.14</v>
+        <v>157.1391089108911</v>
       </c>
       <c r="I8" t="n">
-        <v>139.68</v>
+        <v>139.6792079207921</v>
       </c>
       <c r="J8" t="n">
-        <v>122.22</v>
+        <v>122.2193069306931</v>
       </c>
       <c r="K8" t="n">
-        <v>87.29999999999998</v>
+        <v>87.29950495049503</v>
       </c>
       <c r="L8" t="n">
-        <v>69.83999999999999</v>
+        <v>69.83960396039603</v>
       </c>
       <c r="M8" t="n">
-        <v>174.6</v>
+        <v>174.5990099009901</v>
       </c>
       <c r="N8" t="n">
-        <v>87.29999999999998</v>
+        <v>87.29950495049503</v>
       </c>
       <c r="O8" t="n">
-        <v>87.29999999999998</v>
+        <v>87.29950495049503</v>
       </c>
       <c r="P8" t="n">
-        <v>69.83999999999999</v>
+        <v>69.83960396039603</v>
       </c>
       <c r="Q8" t="n">
-        <v>52.37999999999999</v>
+        <v>52.37970297029702</v>
       </c>
       <c r="R8" t="n">
-        <v>34.91999999999999</v>
+        <v>34.91980198019802</v>
       </c>
       <c r="S8" t="n">
-        <v>52.37999999999999</v>
+        <v>52.37970297029702</v>
       </c>
     </row>
     <row r="9">
@@ -1010,55 +1010,55 @@
         <v>1082.93</v>
       </c>
       <c r="C10" t="n">
-        <v>4802.53</v>
+        <v>4802.5</v>
       </c>
       <c r="D10" t="n">
-        <v>624.3289</v>
+        <v>624.325</v>
       </c>
       <c r="E10" t="n">
-        <v>528.2782999999999</v>
+        <v>528.275</v>
       </c>
       <c r="F10" t="n">
-        <v>480.253</v>
+        <v>480.25</v>
       </c>
       <c r="G10" t="n">
-        <v>432.2277</v>
+        <v>432.225</v>
       </c>
       <c r="H10" t="n">
-        <v>432.2277</v>
+        <v>432.225</v>
       </c>
       <c r="I10" t="n">
-        <v>384.2024</v>
+        <v>384.2</v>
       </c>
       <c r="J10" t="n">
-        <v>288.1518</v>
+        <v>288.15</v>
       </c>
       <c r="K10" t="n">
-        <v>240.1265</v>
+        <v>240.125</v>
       </c>
       <c r="L10" t="n">
-        <v>192.1012</v>
+        <v>192.1</v>
       </c>
       <c r="M10" t="n">
-        <v>576.3036</v>
+        <v>576.3</v>
       </c>
       <c r="N10" t="n">
-        <v>192.1012</v>
+        <v>192.1</v>
       </c>
       <c r="O10" t="n">
-        <v>144.0759</v>
+        <v>144.075</v>
       </c>
       <c r="P10" t="n">
-        <v>96.0506</v>
+        <v>96.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>96.0506</v>
+        <v>96.05</v>
       </c>
       <c r="R10" t="n">
-        <v>48.0253</v>
+        <v>48.025</v>
       </c>
       <c r="S10" t="n">
-        <v>48.0253</v>
+        <v>48.025</v>
       </c>
     </row>
     <row r="11">
@@ -1069,55 +1069,55 @@
         <v>4141.55</v>
       </c>
       <c r="C11" t="n">
-        <v>21444.36</v>
+        <v>21444.34</v>
       </c>
       <c r="D11" t="n">
-        <v>2815.92606060606</v>
+        <v>2815.923434343434</v>
       </c>
       <c r="E11" t="n">
-        <v>2382.706666666666</v>
+        <v>2382.704444444444</v>
       </c>
       <c r="F11" t="n">
-        <v>2166.09696969697</v>
+        <v>2166.09494949495</v>
       </c>
       <c r="G11" t="n">
-        <v>1949.487272727273</v>
+        <v>1949.485454545454</v>
       </c>
       <c r="H11" t="n">
-        <v>1949.487272727273</v>
+        <v>1949.485454545454</v>
       </c>
       <c r="I11" t="n">
-        <v>1516.267878787879</v>
+        <v>1516.266464646465</v>
       </c>
       <c r="J11" t="n">
-        <v>1299.658181818182</v>
+        <v>1299.65696969697</v>
       </c>
       <c r="K11" t="n">
-        <v>866.4387878787878</v>
+        <v>866.4379797979798</v>
       </c>
       <c r="L11" t="n">
-        <v>866.4387878787878</v>
+        <v>866.4379797979798</v>
       </c>
       <c r="M11" t="n">
-        <v>2815.92606060606</v>
+        <v>2815.923434343434</v>
       </c>
       <c r="N11" t="n">
-        <v>866.4387878787878</v>
+        <v>866.4379797979798</v>
       </c>
       <c r="O11" t="n">
-        <v>649.8290909090908</v>
+        <v>649.8284848484848</v>
       </c>
       <c r="P11" t="n">
-        <v>433.2193939393939</v>
+        <v>433.2189898989899</v>
       </c>
       <c r="Q11" t="n">
-        <v>433.2193939393939</v>
+        <v>433.2189898989899</v>
       </c>
       <c r="R11" t="n">
-        <v>216.609696969697</v>
+        <v>216.6094949494949</v>
       </c>
       <c r="S11" t="n">
-        <v>216.609696969697</v>
+        <v>216.6094949494949</v>
       </c>
     </row>
     <row r="12">
@@ -1128,55 +1128,55 @@
         <v>78.81999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>380.4399999999999</v>
+        <v>380.4299999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>33.90059405940593</v>
+        <v>33.89970297029702</v>
       </c>
       <c r="E12" t="n">
-        <v>30.13386138613861</v>
+        <v>30.13306930693069</v>
       </c>
       <c r="F12" t="n">
-        <v>26.36712871287128</v>
+        <v>26.36643564356435</v>
       </c>
       <c r="G12" t="n">
-        <v>22.60039603960395</v>
+        <v>22.59980198019801</v>
       </c>
       <c r="H12" t="n">
-        <v>30.13386138613861</v>
+        <v>30.13306930693069</v>
       </c>
       <c r="I12" t="n">
-        <v>22.60039603960395</v>
+        <v>22.59980198019801</v>
       </c>
       <c r="J12" t="n">
-        <v>26.36712871287128</v>
+        <v>26.36643564356435</v>
       </c>
       <c r="K12" t="n">
-        <v>26.36712871287128</v>
+        <v>26.36643564356435</v>
       </c>
       <c r="L12" t="n">
-        <v>18.83366336633663</v>
+        <v>18.83316831683168</v>
       </c>
       <c r="M12" t="n">
-        <v>33.90059405940593</v>
+        <v>33.89970297029702</v>
       </c>
       <c r="N12" t="n">
-        <v>18.83366336633663</v>
+        <v>18.83316831683168</v>
       </c>
       <c r="O12" t="n">
-        <v>18.83366336633663</v>
+        <v>18.83316831683168</v>
       </c>
       <c r="P12" t="n">
-        <v>15.0669306930693</v>
+        <v>15.06653465346534</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.83366336633663</v>
+        <v>18.83316831683168</v>
       </c>
       <c r="R12" t="n">
-        <v>15.0669306930693</v>
+        <v>15.06653465346534</v>
       </c>
       <c r="S12" t="n">
-        <v>22.60039603960395</v>
+        <v>22.59980198019801</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1184,7 @@
         <v>206</v>
       </c>
       <c r="B13" t="n">
-        <v>134.57</v>
+        <v>134.56</v>
       </c>
       <c r="C13" t="n">
         <v>651.1399999999999</v>
@@ -1246,55 +1246,55 @@
         <v>293.94</v>
       </c>
       <c r="C14" t="n">
-        <v>1422.43</v>
+        <v>1422.42</v>
       </c>
       <c r="D14" t="n">
-        <v>126.7511881188119</v>
+        <v>126.7502970297029</v>
       </c>
       <c r="E14" t="n">
-        <v>112.6677227722772</v>
+        <v>112.6669306930693</v>
       </c>
       <c r="F14" t="n">
-        <v>98.58425742574256</v>
+        <v>98.58356435643564</v>
       </c>
       <c r="G14" t="n">
-        <v>84.5007920792079</v>
+        <v>84.50019801980196</v>
       </c>
       <c r="H14" t="n">
-        <v>112.6677227722772</v>
+        <v>112.6669306930693</v>
       </c>
       <c r="I14" t="n">
-        <v>84.5007920792079</v>
+        <v>84.50019801980196</v>
       </c>
       <c r="J14" t="n">
-        <v>98.58425742574256</v>
+        <v>98.58356435643564</v>
       </c>
       <c r="K14" t="n">
-        <v>98.58425742574256</v>
+        <v>98.58356435643564</v>
       </c>
       <c r="L14" t="n">
-        <v>70.41732673267326</v>
+        <v>70.4168316831683</v>
       </c>
       <c r="M14" t="n">
-        <v>126.7511881188119</v>
+        <v>126.7502970297029</v>
       </c>
       <c r="N14" t="n">
-        <v>70.41732673267326</v>
+        <v>70.4168316831683</v>
       </c>
       <c r="O14" t="n">
-        <v>70.41732673267326</v>
+        <v>70.4168316831683</v>
       </c>
       <c r="P14" t="n">
-        <v>56.33386138613861</v>
+        <v>56.33346534653464</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.41732673267326</v>
+        <v>70.4168316831683</v>
       </c>
       <c r="R14" t="n">
-        <v>56.33386138613861</v>
+        <v>56.33346534653464</v>
       </c>
       <c r="S14" t="n">
-        <v>84.5007920792079</v>
+        <v>84.50019801980196</v>
       </c>
     </row>
     <row r="15">
@@ -1479,58 +1479,58 @@
         <v>1303</v>
       </c>
       <c r="B18" t="n">
-        <v>495.95</v>
+        <v>495.94</v>
       </c>
       <c r="C18" t="n">
-        <v>2231.76</v>
+        <v>2231.75</v>
       </c>
       <c r="D18" t="n">
-        <v>250.5036734693877</v>
+        <v>250.5025510204081</v>
       </c>
       <c r="E18" t="n">
-        <v>204.9575510204081</v>
+        <v>204.9566326530611</v>
       </c>
       <c r="F18" t="n">
-        <v>182.1844897959184</v>
+        <v>182.1836734693877</v>
       </c>
       <c r="G18" t="n">
-        <v>182.1844897959184</v>
+        <v>182.1836734693877</v>
       </c>
       <c r="H18" t="n">
-        <v>182.1844897959184</v>
+        <v>182.1836734693877</v>
       </c>
       <c r="I18" t="n">
-        <v>159.4114285714286</v>
+        <v>159.4107142857142</v>
       </c>
       <c r="J18" t="n">
-        <v>159.4114285714286</v>
+        <v>159.4107142857142</v>
       </c>
       <c r="K18" t="n">
-        <v>136.6383673469387</v>
+        <v>136.6377551020408</v>
       </c>
       <c r="L18" t="n">
-        <v>113.865306122449</v>
+        <v>113.8647959183673</v>
       </c>
       <c r="M18" t="n">
-        <v>227.7306122448979</v>
+        <v>227.7295918367346</v>
       </c>
       <c r="N18" t="n">
-        <v>91.09224489795918</v>
+        <v>91.09183673469386</v>
       </c>
       <c r="O18" t="n">
-        <v>91.09224489795918</v>
+        <v>91.09183673469386</v>
       </c>
       <c r="P18" t="n">
-        <v>68.31918367346937</v>
+        <v>68.31887755102038</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.31918367346937</v>
+        <v>68.31887755102038</v>
       </c>
       <c r="R18" t="n">
-        <v>45.54612244897959</v>
+        <v>45.54591836734693</v>
       </c>
       <c r="S18" t="n">
-        <v>68.31918367346937</v>
+        <v>68.31887755102038</v>
       </c>
     </row>
     <row r="19">
@@ -1600,55 +1600,55 @@
         <v>1546.51</v>
       </c>
       <c r="C20" t="n">
-        <v>6959.309999999999</v>
+        <v>6959.289999999998</v>
       </c>
       <c r="D20" t="n">
-        <v>773.2566666666664</v>
+        <v>773.2544444444442</v>
       </c>
       <c r="E20" t="n">
-        <v>702.9606060606059</v>
+        <v>702.9585858585856</v>
       </c>
       <c r="F20" t="n">
-        <v>632.6645454545452</v>
+        <v>632.662727272727</v>
       </c>
       <c r="G20" t="n">
-        <v>562.3684848484847</v>
+        <v>562.3668686868685</v>
       </c>
       <c r="H20" t="n">
-        <v>562.3684848484847</v>
+        <v>562.3668686868685</v>
       </c>
       <c r="I20" t="n">
-        <v>562.3684848484847</v>
+        <v>562.3668686868685</v>
       </c>
       <c r="J20" t="n">
-        <v>492.0724242424242</v>
+        <v>492.07101010101</v>
       </c>
       <c r="K20" t="n">
-        <v>351.4803030303029</v>
+        <v>351.4792929292928</v>
       </c>
       <c r="L20" t="n">
-        <v>281.1842424242424</v>
+        <v>281.1834343434343</v>
       </c>
       <c r="M20" t="n">
-        <v>773.2566666666664</v>
+        <v>773.2544444444442</v>
       </c>
       <c r="N20" t="n">
-        <v>281.1842424242424</v>
+        <v>281.1834343434343</v>
       </c>
       <c r="O20" t="n">
-        <v>281.1842424242424</v>
+        <v>281.1834343434343</v>
       </c>
       <c r="P20" t="n">
-        <v>210.8881818181818</v>
+        <v>210.8875757575757</v>
       </c>
       <c r="Q20" t="n">
-        <v>210.8881818181818</v>
+        <v>210.8875757575757</v>
       </c>
       <c r="R20" t="n">
-        <v>140.5921212121212</v>
+        <v>140.5917171717171</v>
       </c>
       <c r="S20" t="n">
-        <v>140.5921212121212</v>
+        <v>140.5917171717171</v>
       </c>
     </row>
     <row r="21">
@@ -1973,58 +1973,58 @@
         <v>6605</v>
       </c>
       <c r="B28" t="n">
-        <v>252.19</v>
+        <v>252.18</v>
       </c>
       <c r="C28" t="n">
-        <v>1058.41</v>
+        <v>1058.4</v>
       </c>
       <c r="D28" t="n">
-        <v>114.1422549019608</v>
+        <v>114.1411764705882</v>
       </c>
       <c r="E28" t="n">
-        <v>103.7656862745098</v>
+        <v>103.7647058823529</v>
       </c>
       <c r="F28" t="n">
-        <v>93.38911764705881</v>
+        <v>93.38823529411764</v>
       </c>
       <c r="G28" t="n">
-        <v>83.01254901960783</v>
+        <v>83.01176470588234</v>
       </c>
       <c r="H28" t="n">
-        <v>83.01254901960783</v>
+        <v>83.01176470588234</v>
       </c>
       <c r="I28" t="n">
-        <v>83.01254901960783</v>
+        <v>83.01176470588234</v>
       </c>
       <c r="J28" t="n">
-        <v>72.63598039215687</v>
+        <v>72.63529411764706</v>
       </c>
       <c r="K28" t="n">
-        <v>51.88284313725489</v>
+        <v>51.88235294117646</v>
       </c>
       <c r="L28" t="n">
-        <v>51.88284313725489</v>
+        <v>51.88235294117646</v>
       </c>
       <c r="M28" t="n">
-        <v>114.1422549019608</v>
+        <v>114.1411764705882</v>
       </c>
       <c r="N28" t="n">
-        <v>51.88284313725489</v>
+        <v>51.88235294117646</v>
       </c>
       <c r="O28" t="n">
-        <v>41.50627450980392</v>
+        <v>41.50588235294117</v>
       </c>
       <c r="P28" t="n">
-        <v>31.12970588235294</v>
+        <v>31.12941176470588</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.12970588235294</v>
+        <v>31.12941176470588</v>
       </c>
       <c r="R28" t="n">
-        <v>20.75313725490196</v>
+        <v>20.75294117647059</v>
       </c>
       <c r="S28" t="n">
-        <v>31.12970588235294</v>
+        <v>31.12941176470588</v>
       </c>
     </row>
     <row r="29">
@@ -2035,55 +2035,55 @@
         <v>1442.28</v>
       </c>
       <c r="C29" t="n">
-        <v>6046.139999999999</v>
+        <v>6046.129999999998</v>
       </c>
       <c r="D29" t="n">
-        <v>652.0347058823528</v>
+        <v>652.0336274509802</v>
       </c>
       <c r="E29" t="n">
-        <v>592.7588235294118</v>
+        <v>592.7578431372548</v>
       </c>
       <c r="F29" t="n">
-        <v>533.4829411764705</v>
+        <v>533.4820588235293</v>
       </c>
       <c r="G29" t="n">
-        <v>474.2070588235293</v>
+        <v>474.2062745098038</v>
       </c>
       <c r="H29" t="n">
-        <v>474.2070588235293</v>
+        <v>474.2062745098038</v>
       </c>
       <c r="I29" t="n">
-        <v>474.2070588235293</v>
+        <v>474.2062745098038</v>
       </c>
       <c r="J29" t="n">
-        <v>414.9311764705882</v>
+        <v>414.9304901960784</v>
       </c>
       <c r="K29" t="n">
-        <v>296.3794117647059</v>
+        <v>296.3789215686274</v>
       </c>
       <c r="L29" t="n">
-        <v>296.3794117647059</v>
+        <v>296.3789215686274</v>
       </c>
       <c r="M29" t="n">
-        <v>652.0347058823528</v>
+        <v>652.0336274509802</v>
       </c>
       <c r="N29" t="n">
-        <v>296.3794117647059</v>
+        <v>296.3789215686274</v>
       </c>
       <c r="O29" t="n">
-        <v>237.1035294117647</v>
+        <v>237.1031372549019</v>
       </c>
       <c r="P29" t="n">
-        <v>177.8276470588235</v>
+        <v>177.8273529411764</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.8276470588235</v>
+        <v>177.8273529411764</v>
       </c>
       <c r="R29" t="n">
-        <v>118.5517647058823</v>
+        <v>118.551568627451</v>
       </c>
       <c r="S29" t="n">
-        <v>177.8276470588235</v>
+        <v>177.8273529411764</v>
       </c>
     </row>
     <row r="30">
@@ -2094,55 +2094,55 @@
         <v>1043.32</v>
       </c>
       <c r="C30" t="n">
-        <v>4375.669999999999</v>
+        <v>4375.659999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>471.8859803921568</v>
+        <v>471.8849019607842</v>
       </c>
       <c r="E30" t="n">
-        <v>428.9872549019607</v>
+        <v>428.9862745098038</v>
       </c>
       <c r="F30" t="n">
-        <v>386.0885294117646</v>
+        <v>386.0876470588234</v>
       </c>
       <c r="G30" t="n">
-        <v>343.1898039215686</v>
+        <v>343.1890196078431</v>
       </c>
       <c r="H30" t="n">
-        <v>343.1898039215686</v>
+        <v>343.1890196078431</v>
       </c>
       <c r="I30" t="n">
-        <v>343.1898039215686</v>
+        <v>343.1890196078431</v>
       </c>
       <c r="J30" t="n">
-        <v>300.2910784313725</v>
+        <v>300.2903921568627</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4936274509804</v>
+        <v>214.4931372549019</v>
       </c>
       <c r="L30" t="n">
-        <v>214.4936274509804</v>
+        <v>214.4931372549019</v>
       </c>
       <c r="M30" t="n">
-        <v>471.8859803921568</v>
+        <v>471.8849019607842</v>
       </c>
       <c r="N30" t="n">
-        <v>214.4936274509804</v>
+        <v>214.4931372549019</v>
       </c>
       <c r="O30" t="n">
-        <v>171.5949019607843</v>
+        <v>171.5945098039215</v>
       </c>
       <c r="P30" t="n">
-        <v>128.6961764705882</v>
+        <v>128.6958823529411</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.6961764705882</v>
+        <v>128.6958823529411</v>
       </c>
       <c r="R30" t="n">
-        <v>85.79745098039214</v>
+        <v>85.79725490196077</v>
       </c>
       <c r="S30" t="n">
-        <v>128.6961764705882</v>
+        <v>128.6958823529411</v>
       </c>
     </row>
     <row r="31">
@@ -2153,55 +2153,55 @@
         <v>1479.01</v>
       </c>
       <c r="C31" t="n">
-        <v>6200.959999999999</v>
+        <v>6200.949999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>668.7309803921568</v>
+        <v>668.7299019607841</v>
       </c>
       <c r="E31" t="n">
-        <v>607.9372549019607</v>
+        <v>607.9362745098039</v>
       </c>
       <c r="F31" t="n">
-        <v>547.1435294117646</v>
+        <v>547.1426470588234</v>
       </c>
       <c r="G31" t="n">
-        <v>486.3498039215685</v>
+        <v>486.349019607843</v>
       </c>
       <c r="H31" t="n">
-        <v>486.3498039215685</v>
+        <v>486.349019607843</v>
       </c>
       <c r="I31" t="n">
-        <v>486.3498039215685</v>
+        <v>486.349019607843</v>
       </c>
       <c r="J31" t="n">
-        <v>425.5560784313725</v>
+        <v>425.5553921568627</v>
       </c>
       <c r="K31" t="n">
-        <v>303.9686274509804</v>
+        <v>303.9681372549019</v>
       </c>
       <c r="L31" t="n">
-        <v>303.9686274509804</v>
+        <v>303.9681372549019</v>
       </c>
       <c r="M31" t="n">
-        <v>668.7309803921568</v>
+        <v>668.7299019607841</v>
       </c>
       <c r="N31" t="n">
-        <v>303.9686274509804</v>
+        <v>303.9681372549019</v>
       </c>
       <c r="O31" t="n">
-        <v>243.1749019607843</v>
+        <v>243.1745098039215</v>
       </c>
       <c r="P31" t="n">
-        <v>182.3811764705882</v>
+        <v>182.3808823529411</v>
       </c>
       <c r="Q31" t="n">
-        <v>182.3811764705882</v>
+        <v>182.3808823529411</v>
       </c>
       <c r="R31" t="n">
-        <v>121.5874509803921</v>
+        <v>121.5872549019608</v>
       </c>
       <c r="S31" t="n">
-        <v>182.3811764705882</v>
+        <v>182.3808823529411</v>
       </c>
     </row>
     <row r="32">
@@ -2330,55 +2330,55 @@
         <v>1656.69</v>
       </c>
       <c r="C34" t="n">
-        <v>7455.109999999997</v>
+        <v>7455.099999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>828.3455555555553</v>
+        <v>828.3444444444442</v>
       </c>
       <c r="E34" t="n">
-        <v>753.0414141414138</v>
+        <v>753.0404040404038</v>
       </c>
       <c r="F34" t="n">
-        <v>677.7372727272724</v>
+        <v>677.7363636363634</v>
       </c>
       <c r="G34" t="n">
-        <v>602.4331313131312</v>
+        <v>602.4323232323231</v>
       </c>
       <c r="H34" t="n">
-        <v>602.4331313131312</v>
+        <v>602.4323232323231</v>
       </c>
       <c r="I34" t="n">
-        <v>602.4331313131312</v>
+        <v>602.4323232323231</v>
       </c>
       <c r="J34" t="n">
-        <v>527.1289898989897</v>
+        <v>527.1282828282827</v>
       </c>
       <c r="K34" t="n">
-        <v>376.5207070707069</v>
+        <v>376.5202020202019</v>
       </c>
       <c r="L34" t="n">
-        <v>301.2165656565656</v>
+        <v>301.2161616161616</v>
       </c>
       <c r="M34" t="n">
-        <v>828.3455555555553</v>
+        <v>828.3444444444442</v>
       </c>
       <c r="N34" t="n">
-        <v>301.2165656565656</v>
+        <v>301.2161616161616</v>
       </c>
       <c r="O34" t="n">
-        <v>301.2165656565656</v>
+        <v>301.2161616161616</v>
       </c>
       <c r="P34" t="n">
-        <v>225.9124242424242</v>
+        <v>225.9121212121211</v>
       </c>
       <c r="Q34" t="n">
-        <v>225.9124242424242</v>
+        <v>225.9121212121211</v>
       </c>
       <c r="R34" t="n">
-        <v>150.6082828282828</v>
+        <v>150.6080808080808</v>
       </c>
       <c r="S34" t="n">
-        <v>150.6082828282828</v>
+        <v>150.6080808080808</v>
       </c>
     </row>
     <row r="35">
@@ -2534,55 +2534,55 @@
         <v>912.62</v>
       </c>
       <c r="C38" t="n">
-        <v>4106.779999999999</v>
+        <v>4106.77</v>
       </c>
       <c r="D38" t="n">
-        <v>460.9651020408161</v>
+        <v>460.9639795918366</v>
       </c>
       <c r="E38" t="n">
-        <v>377.1532653061223</v>
+        <v>377.1523469387754</v>
       </c>
       <c r="F38" t="n">
-        <v>335.2473469387754</v>
+        <v>335.2465306122448</v>
       </c>
       <c r="G38" t="n">
-        <v>335.2473469387754</v>
+        <v>335.2465306122448</v>
       </c>
       <c r="H38" t="n">
-        <v>335.2473469387754</v>
+        <v>335.2465306122448</v>
       </c>
       <c r="I38" t="n">
-        <v>293.3414285714285</v>
+        <v>293.3407142857142</v>
       </c>
       <c r="J38" t="n">
-        <v>293.3414285714285</v>
+        <v>293.3407142857142</v>
       </c>
       <c r="K38" t="n">
-        <v>251.4355102040815</v>
+        <v>251.4348979591836</v>
       </c>
       <c r="L38" t="n">
-        <v>209.5295918367346</v>
+        <v>209.529081632653</v>
       </c>
       <c r="M38" t="n">
-        <v>419.0591836734692</v>
+        <v>419.0581632653061</v>
       </c>
       <c r="N38" t="n">
-        <v>167.6236734693877</v>
+        <v>167.6232653061224</v>
       </c>
       <c r="O38" t="n">
-        <v>167.6236734693877</v>
+        <v>167.6232653061224</v>
       </c>
       <c r="P38" t="n">
-        <v>125.7177551020408</v>
+        <v>125.7174489795918</v>
       </c>
       <c r="Q38" t="n">
-        <v>125.7177551020408</v>
+        <v>125.7174489795918</v>
       </c>
       <c r="R38" t="n">
-        <v>83.81183673469386</v>
+        <v>83.81163265306121</v>
       </c>
       <c r="S38" t="n">
-        <v>125.7177551020408</v>
+        <v>125.7174489795918</v>
       </c>
     </row>
     <row r="39">
@@ -2767,58 +2767,58 @@
         <v>2401</v>
       </c>
       <c r="B42" t="n">
-        <v>1646.73</v>
+        <v>1646.72</v>
       </c>
       <c r="C42" t="n">
-        <v>8592.379999999997</v>
+        <v>8592.369999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>1128.292323232323</v>
+        <v>1128.29101010101</v>
       </c>
       <c r="E42" t="n">
-        <v>954.7088888888887</v>
+        <v>954.7077777777778</v>
       </c>
       <c r="F42" t="n">
-        <v>781.1254545454544</v>
+        <v>781.1245454545455</v>
       </c>
       <c r="G42" t="n">
-        <v>781.1254545454544</v>
+        <v>781.1245454545455</v>
       </c>
       <c r="H42" t="n">
-        <v>781.1254545454544</v>
+        <v>781.1245454545455</v>
       </c>
       <c r="I42" t="n">
-        <v>694.3337373737372</v>
+        <v>694.3329292929293</v>
       </c>
       <c r="J42" t="n">
-        <v>520.7503030303029</v>
+        <v>520.749696969697</v>
       </c>
       <c r="K42" t="n">
-        <v>433.9585858585858</v>
+        <v>433.9580808080809</v>
       </c>
       <c r="L42" t="n">
-        <v>347.1668686868686</v>
+        <v>347.1664646464646</v>
       </c>
       <c r="M42" t="n">
-        <v>1041.500606060606</v>
+        <v>1041.499393939394</v>
       </c>
       <c r="N42" t="n">
-        <v>347.1668686868686</v>
+        <v>347.1664646464646</v>
       </c>
       <c r="O42" t="n">
-        <v>260.3751515151515</v>
+        <v>260.3748484848485</v>
       </c>
       <c r="P42" t="n">
-        <v>173.5834343434343</v>
+        <v>173.5832323232323</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.5834343434343</v>
+        <v>173.5832323232323</v>
       </c>
       <c r="R42" t="n">
-        <v>86.79171717171715</v>
+        <v>86.79161616161616</v>
       </c>
       <c r="S42" t="n">
-        <v>86.79171717171715</v>
+        <v>86.79161616161616</v>
       </c>
     </row>
     <row r="43">
@@ -2888,55 +2888,55 @@
         <v>323.05</v>
       </c>
       <c r="C44" t="n">
-        <v>1562.21</v>
+        <v>1562.2</v>
       </c>
       <c r="D44" t="n">
-        <v>139.2068316831683</v>
+        <v>139.2059405940594</v>
       </c>
       <c r="E44" t="n">
-        <v>123.739405940594</v>
+        <v>123.7386138613861</v>
       </c>
       <c r="F44" t="n">
-        <v>108.2719801980198</v>
+        <v>108.2712871287129</v>
       </c>
       <c r="G44" t="n">
-        <v>92.80455445544553</v>
+        <v>92.80396039603959</v>
       </c>
       <c r="H44" t="n">
-        <v>123.739405940594</v>
+        <v>123.7386138613861</v>
       </c>
       <c r="I44" t="n">
-        <v>92.80455445544553</v>
+        <v>92.80396039603959</v>
       </c>
       <c r="J44" t="n">
-        <v>108.2719801980198</v>
+        <v>108.2712871287129</v>
       </c>
       <c r="K44" t="n">
-        <v>108.2719801980198</v>
+        <v>108.2712871287129</v>
       </c>
       <c r="L44" t="n">
-        <v>77.33712871287128</v>
+        <v>77.33663366336631</v>
       </c>
       <c r="M44" t="n">
-        <v>139.2068316831683</v>
+        <v>139.2059405940594</v>
       </c>
       <c r="N44" t="n">
-        <v>77.33712871287128</v>
+        <v>77.33663366336631</v>
       </c>
       <c r="O44" t="n">
-        <v>77.33712871287128</v>
+        <v>77.33663366336631</v>
       </c>
       <c r="P44" t="n">
-        <v>61.86970297029702</v>
+        <v>61.86930693069306</v>
       </c>
       <c r="Q44" t="n">
-        <v>77.33712871287128</v>
+        <v>77.33663366336631</v>
       </c>
       <c r="R44" t="n">
-        <v>61.86970297029702</v>
+        <v>61.86930693069306</v>
       </c>
       <c r="S44" t="n">
-        <v>92.80455445544553</v>
+        <v>92.80396039603959</v>
       </c>
     </row>
     <row r="45">
@@ -2944,58 +2944,58 @@
         <v>6609</v>
       </c>
       <c r="B45" t="n">
-        <v>1506.12</v>
+        <v>1506.11</v>
       </c>
       <c r="C45" t="n">
-        <v>6313.569999999998</v>
+        <v>6313.559999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>680.8751960784311</v>
+        <v>680.8741176470587</v>
       </c>
       <c r="E45" t="n">
-        <v>618.9774509803921</v>
+        <v>618.9764705882352</v>
       </c>
       <c r="F45" t="n">
-        <v>557.0797058823528</v>
+        <v>557.0788235294117</v>
       </c>
       <c r="G45" t="n">
-        <v>495.1819607843136</v>
+        <v>495.1811764705882</v>
       </c>
       <c r="H45" t="n">
-        <v>495.1819607843136</v>
+        <v>495.1811764705882</v>
       </c>
       <c r="I45" t="n">
-        <v>495.1819607843136</v>
+        <v>495.1811764705882</v>
       </c>
       <c r="J45" t="n">
-        <v>433.2842156862744</v>
+        <v>433.2835294117647</v>
       </c>
       <c r="K45" t="n">
-        <v>309.488725490196</v>
+        <v>309.4882352941176</v>
       </c>
       <c r="L45" t="n">
-        <v>309.488725490196</v>
+        <v>309.4882352941176</v>
       </c>
       <c r="M45" t="n">
-        <v>680.8751960784311</v>
+        <v>680.8741176470587</v>
       </c>
       <c r="N45" t="n">
-        <v>309.488725490196</v>
+        <v>309.4882352941176</v>
       </c>
       <c r="O45" t="n">
-        <v>247.5909803921568</v>
+        <v>247.5905882352941</v>
       </c>
       <c r="P45" t="n">
-        <v>185.6932352941176</v>
+        <v>185.6929411764706</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.6932352941176</v>
+        <v>185.6929411764706</v>
       </c>
       <c r="R45" t="n">
-        <v>123.7954901960784</v>
+        <v>123.795294117647</v>
       </c>
       <c r="S45" t="n">
-        <v>185.6932352941176</v>
+        <v>185.6929411764706</v>
       </c>
     </row>
     <row r="46">
@@ -3065,55 +3065,55 @@
         <v>1302.12</v>
       </c>
       <c r="C47" t="n">
-        <v>5859.559999999999</v>
+        <v>5859.549999999998</v>
       </c>
       <c r="D47" t="n">
-        <v>651.0622222222221</v>
+        <v>651.0611111111109</v>
       </c>
       <c r="E47" t="n">
-        <v>591.8747474747473</v>
+        <v>591.8737373737372</v>
       </c>
       <c r="F47" t="n">
-        <v>532.6872727272726</v>
+        <v>532.6863636363635</v>
       </c>
       <c r="G47" t="n">
-        <v>473.4997979797979</v>
+        <v>473.4989898989898</v>
       </c>
       <c r="H47" t="n">
-        <v>473.4997979797979</v>
+        <v>473.4989898989898</v>
       </c>
       <c r="I47" t="n">
-        <v>473.4997979797979</v>
+        <v>473.4989898989898</v>
       </c>
       <c r="J47" t="n">
-        <v>414.3123232323231</v>
+        <v>414.3116161616161</v>
       </c>
       <c r="K47" t="n">
-        <v>295.9373737373737</v>
+        <v>295.9368686868686</v>
       </c>
       <c r="L47" t="n">
-        <v>236.749898989899</v>
+        <v>236.7494949494949</v>
       </c>
       <c r="M47" t="n">
-        <v>651.0622222222221</v>
+        <v>651.0611111111109</v>
       </c>
       <c r="N47" t="n">
-        <v>236.749898989899</v>
+        <v>236.7494949494949</v>
       </c>
       <c r="O47" t="n">
-        <v>236.749898989899</v>
+        <v>236.7494949494949</v>
       </c>
       <c r="P47" t="n">
-        <v>177.5624242424242</v>
+        <v>177.5621212121212</v>
       </c>
       <c r="Q47" t="n">
-        <v>177.5624242424242</v>
+        <v>177.5621212121212</v>
       </c>
       <c r="R47" t="n">
-        <v>118.3749494949495</v>
+        <v>118.3747474747475</v>
       </c>
       <c r="S47" t="n">
-        <v>118.3749494949495</v>
+        <v>118.3747474747475</v>
       </c>
     </row>
     <row r="48">
@@ -3121,58 +3121,58 @@
         <v>6801</v>
       </c>
       <c r="B48" t="n">
-        <v>7141.41</v>
+        <v>7141.4</v>
       </c>
       <c r="C48" t="n">
-        <v>37442.42999999999</v>
+        <v>37442.38999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>4493.091599999999</v>
+        <v>4493.086799999999</v>
       </c>
       <c r="E48" t="n">
-        <v>3744.242999999999</v>
+        <v>3744.238999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>3744.242999999999</v>
+        <v>3744.238999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>3744.242999999999</v>
+        <v>3744.238999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>3369.818699999999</v>
+        <v>3369.815099999999</v>
       </c>
       <c r="I48" t="n">
-        <v>2620.9701</v>
+        <v>2620.9673</v>
       </c>
       <c r="J48" t="n">
-        <v>2246.545799999999</v>
+        <v>2246.5434</v>
       </c>
       <c r="K48" t="n">
-        <v>1872.1215</v>
+        <v>1872.1195</v>
       </c>
       <c r="L48" t="n">
-        <v>1497.6972</v>
+        <v>1497.6956</v>
       </c>
       <c r="M48" t="n">
-        <v>4118.667299999999</v>
+        <v>4118.662899999999</v>
       </c>
       <c r="N48" t="n">
-        <v>1497.6972</v>
+        <v>1497.6956</v>
       </c>
       <c r="O48" t="n">
-        <v>1123.2729</v>
+        <v>1123.2717</v>
       </c>
       <c r="P48" t="n">
-        <v>1123.2729</v>
+        <v>1123.2717</v>
       </c>
       <c r="Q48" t="n">
-        <v>748.8485999999999</v>
+        <v>748.8477999999999</v>
       </c>
       <c r="R48" t="n">
-        <v>748.8485999999999</v>
+        <v>748.8477999999999</v>
       </c>
       <c r="S48" t="n">
-        <v>748.8485999999999</v>
+        <v>748.8477999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3183,55 +3183,55 @@
         <v>2169.71</v>
       </c>
       <c r="C49" t="n">
-        <v>8915.039999999999</v>
+        <v>8915.029999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>1170.661818181818</v>
+        <v>1170.660505050505</v>
       </c>
       <c r="E49" t="n">
-        <v>900.509090909091</v>
+        <v>900.5080808080809</v>
       </c>
       <c r="F49" t="n">
-        <v>810.4581818181817</v>
+        <v>810.4572727272727</v>
       </c>
       <c r="G49" t="n">
-        <v>810.4581818181817</v>
+        <v>810.4572727272727</v>
       </c>
       <c r="H49" t="n">
-        <v>810.4581818181817</v>
+        <v>810.4572727272727</v>
       </c>
       <c r="I49" t="n">
-        <v>720.4072727272727</v>
+        <v>720.4064646464647</v>
       </c>
       <c r="J49" t="n">
-        <v>540.3054545454545</v>
+        <v>540.3048484848484</v>
       </c>
       <c r="K49" t="n">
-        <v>360.2036363636363</v>
+        <v>360.2032323232323</v>
       </c>
       <c r="L49" t="n">
-        <v>360.2036363636363</v>
+        <v>360.2032323232323</v>
       </c>
       <c r="M49" t="n">
-        <v>1080.610909090909</v>
+        <v>1080.609696969697</v>
       </c>
       <c r="N49" t="n">
-        <v>360.2036363636363</v>
+        <v>360.2032323232323</v>
       </c>
       <c r="O49" t="n">
-        <v>270.1527272727272</v>
+        <v>270.1524242424242</v>
       </c>
       <c r="P49" t="n">
-        <v>270.1527272727272</v>
+        <v>270.1524242424242</v>
       </c>
       <c r="Q49" t="n">
-        <v>180.1018181818182</v>
+        <v>180.1016161616162</v>
       </c>
       <c r="R49" t="n">
-        <v>90.05090909090909</v>
+        <v>90.05080808080808</v>
       </c>
       <c r="S49" t="n">
-        <v>180.1018181818182</v>
+        <v>180.1016161616162</v>
       </c>
     </row>
     <row r="50">
@@ -3360,55 +3360,55 @@
         <v>845.02</v>
       </c>
       <c r="C52" t="n">
-        <v>3473.89</v>
+        <v>3473.88</v>
       </c>
       <c r="D52" t="n">
-        <v>456.1673737373737</v>
+        <v>456.1660606060606</v>
       </c>
       <c r="E52" t="n">
-        <v>350.8979797979798</v>
+        <v>350.8969696969697</v>
       </c>
       <c r="F52" t="n">
-        <v>315.8081818181818</v>
+        <v>315.8072727272727</v>
       </c>
       <c r="G52" t="n">
-        <v>315.8081818181818</v>
+        <v>315.8072727272727</v>
       </c>
       <c r="H52" t="n">
-        <v>315.8081818181818</v>
+        <v>315.8072727272727</v>
       </c>
       <c r="I52" t="n">
-        <v>280.7183838383838</v>
+        <v>280.7175757575757</v>
       </c>
       <c r="J52" t="n">
-        <v>210.5387878787878</v>
+        <v>210.5381818181818</v>
       </c>
       <c r="K52" t="n">
-        <v>140.3591919191919</v>
+        <v>140.3587878787879</v>
       </c>
       <c r="L52" t="n">
-        <v>140.3591919191919</v>
+        <v>140.3587878787879</v>
       </c>
       <c r="M52" t="n">
-        <v>421.0775757575757</v>
+        <v>421.0763636363636</v>
       </c>
       <c r="N52" t="n">
-        <v>140.3591919191919</v>
+        <v>140.3587878787879</v>
       </c>
       <c r="O52" t="n">
-        <v>105.2693939393939</v>
+        <v>105.2690909090909</v>
       </c>
       <c r="P52" t="n">
-        <v>105.2693939393939</v>
+        <v>105.2690909090909</v>
       </c>
       <c r="Q52" t="n">
-        <v>70.17959595959596</v>
+        <v>70.17939393939393</v>
       </c>
       <c r="R52" t="n">
-        <v>35.08979797979798</v>
+        <v>35.08969696969697</v>
       </c>
       <c r="S52" t="n">
-        <v>70.17959595959596</v>
+        <v>70.17939393939393</v>
       </c>
     </row>
     <row r="53">
@@ -3478,55 +3478,55 @@
         <v>627.85</v>
       </c>
       <c r="C54" t="n">
-        <v>2592.16</v>
+        <v>2592.15</v>
       </c>
       <c r="D54" t="n">
-        <v>304.96</v>
+        <v>304.9588235294117</v>
       </c>
       <c r="E54" t="n">
-        <v>254.1333333333333</v>
+        <v>254.1323529411765</v>
       </c>
       <c r="F54" t="n">
-        <v>228.72</v>
+        <v>228.7191176470588</v>
       </c>
       <c r="G54" t="n">
-        <v>228.72</v>
+        <v>228.7191176470588</v>
       </c>
       <c r="H54" t="n">
-        <v>228.72</v>
+        <v>228.7191176470588</v>
       </c>
       <c r="I54" t="n">
-        <v>203.3066666666666</v>
+        <v>203.3058823529412</v>
       </c>
       <c r="J54" t="n">
-        <v>152.48</v>
+        <v>152.4794117647059</v>
       </c>
       <c r="K54" t="n">
-        <v>127.0666666666667</v>
+        <v>127.0661764705882</v>
       </c>
       <c r="L54" t="n">
-        <v>101.6533333333333</v>
+        <v>101.6529411764706</v>
       </c>
       <c r="M54" t="n">
-        <v>279.5466666666667</v>
+        <v>279.5455882352941</v>
       </c>
       <c r="N54" t="n">
-        <v>127.0666666666667</v>
+        <v>127.0661764705882</v>
       </c>
       <c r="O54" t="n">
-        <v>101.6533333333333</v>
+        <v>101.6529411764706</v>
       </c>
       <c r="P54" t="n">
-        <v>76.23999999999999</v>
+        <v>76.23970588235294</v>
       </c>
       <c r="Q54" t="n">
-        <v>76.23999999999999</v>
+        <v>76.23970588235294</v>
       </c>
       <c r="R54" t="n">
-        <v>50.82666666666666</v>
+        <v>50.8264705882353</v>
       </c>
       <c r="S54" t="n">
-        <v>50.82666666666666</v>
+        <v>50.8264705882353</v>
       </c>
     </row>
     <row r="55">
@@ -3537,55 +3537,55 @@
         <v>1864.51</v>
       </c>
       <c r="C55" t="n">
-        <v>7639.239999999998</v>
+        <v>7639.229999999997</v>
       </c>
       <c r="D55" t="n">
-        <v>935.4171428571425</v>
+        <v>935.4159183673465</v>
       </c>
       <c r="E55" t="n">
-        <v>779.5142857142855</v>
+        <v>779.5132653061222</v>
       </c>
       <c r="F55" t="n">
-        <v>701.5628571428568</v>
+        <v>701.5619387755099</v>
       </c>
       <c r="G55" t="n">
-        <v>701.5628571428568</v>
+        <v>701.5619387755099</v>
       </c>
       <c r="H55" t="n">
-        <v>623.6114285714284</v>
+        <v>623.6106122448978</v>
       </c>
       <c r="I55" t="n">
-        <v>545.6599999999999</v>
+        <v>545.6592857142856</v>
       </c>
       <c r="J55" t="n">
-        <v>467.7085714285712</v>
+        <v>467.7079591836733</v>
       </c>
       <c r="K55" t="n">
-        <v>389.7571428571428</v>
+        <v>389.7566326530611</v>
       </c>
       <c r="L55" t="n">
-        <v>389.7571428571428</v>
+        <v>389.7566326530611</v>
       </c>
       <c r="M55" t="n">
-        <v>857.4657142857139</v>
+        <v>857.4645918367344</v>
       </c>
       <c r="N55" t="n">
-        <v>311.8057142857142</v>
+        <v>311.8053061224489</v>
       </c>
       <c r="O55" t="n">
-        <v>233.8542857142856</v>
+        <v>233.8539795918366</v>
       </c>
       <c r="P55" t="n">
-        <v>233.8542857142856</v>
+        <v>233.8539795918366</v>
       </c>
       <c r="Q55" t="n">
-        <v>155.9028571428571</v>
+        <v>155.9026530612244</v>
       </c>
       <c r="R55" t="n">
-        <v>155.9028571428571</v>
+        <v>155.9026530612244</v>
       </c>
       <c r="S55" t="n">
-        <v>155.9028571428571</v>
+        <v>155.9026530612244</v>
       </c>
     </row>
     <row r="56">
@@ -3652,58 +3652,58 @@
         <v>2302</v>
       </c>
       <c r="B57" t="n">
-        <v>1026.52</v>
+        <v>1026.51</v>
       </c>
       <c r="C57" t="n">
-        <v>4304.39</v>
+        <v>4304.36</v>
       </c>
       <c r="D57" t="n">
-        <v>511.4126732673267</v>
+        <v>511.409108910891</v>
       </c>
       <c r="E57" t="n">
-        <v>426.1772277227723</v>
+        <v>426.1742574257426</v>
       </c>
       <c r="F57" t="n">
-        <v>383.5595049504951</v>
+        <v>383.5568316831683</v>
       </c>
       <c r="G57" t="n">
-        <v>383.5595049504951</v>
+        <v>383.5568316831683</v>
       </c>
       <c r="H57" t="n">
-        <v>383.5595049504951</v>
+        <v>383.5568316831683</v>
       </c>
       <c r="I57" t="n">
-        <v>340.9417821782179</v>
+        <v>340.939405940594</v>
       </c>
       <c r="J57" t="n">
-        <v>298.3240594059407</v>
+        <v>298.3219801980198</v>
       </c>
       <c r="K57" t="n">
-        <v>213.0886138613862</v>
+        <v>213.0871287128713</v>
       </c>
       <c r="L57" t="n">
-        <v>170.4708910891089</v>
+        <v>170.469702970297</v>
       </c>
       <c r="M57" t="n">
-        <v>468.7949504950495</v>
+        <v>468.7916831683168</v>
       </c>
       <c r="N57" t="n">
-        <v>170.4708910891089</v>
+        <v>170.469702970297</v>
       </c>
       <c r="O57" t="n">
-        <v>170.4708910891089</v>
+        <v>170.469702970297</v>
       </c>
       <c r="P57" t="n">
-        <v>127.8531683168317</v>
+        <v>127.8522772277228</v>
       </c>
       <c r="Q57" t="n">
-        <v>85.23544554455447</v>
+        <v>85.23485148514851</v>
       </c>
       <c r="R57" t="n">
-        <v>85.23544554455447</v>
+        <v>85.23485148514851</v>
       </c>
       <c r="S57" t="n">
-        <v>85.23544554455447</v>
+        <v>85.23485148514851</v>
       </c>
     </row>
     <row r="58">
@@ -3714,55 +3714,55 @@
         <v>1825.59</v>
       </c>
       <c r="C58" t="n">
-        <v>7640.119999999999</v>
+        <v>7640.11</v>
       </c>
       <c r="D58" t="n">
-        <v>907.7370297029703</v>
+        <v>907.7358415841584</v>
       </c>
       <c r="E58" t="n">
-        <v>756.4475247524753</v>
+        <v>756.4465346534654</v>
       </c>
       <c r="F58" t="n">
-        <v>680.8027722772276</v>
+        <v>680.8018811881187</v>
       </c>
       <c r="G58" t="n">
-        <v>680.8027722772276</v>
+        <v>680.8018811881187</v>
       </c>
       <c r="H58" t="n">
-        <v>680.8027722772276</v>
+        <v>680.8018811881187</v>
       </c>
       <c r="I58" t="n">
-        <v>605.1580198019802</v>
+        <v>605.1572277227723</v>
       </c>
       <c r="J58" t="n">
-        <v>529.5132673267327</v>
+        <v>529.5125742574257</v>
       </c>
       <c r="K58" t="n">
-        <v>378.2237623762376</v>
+        <v>378.2232673267327</v>
       </c>
       <c r="L58" t="n">
-        <v>302.5790099009901</v>
+        <v>302.5786138613861</v>
       </c>
       <c r="M58" t="n">
-        <v>832.0922772277228</v>
+        <v>832.0911881188118</v>
       </c>
       <c r="N58" t="n">
-        <v>302.5790099009901</v>
+        <v>302.5786138613861</v>
       </c>
       <c r="O58" t="n">
-        <v>302.5790099009901</v>
+        <v>302.5786138613861</v>
       </c>
       <c r="P58" t="n">
-        <v>226.9342574257426</v>
+        <v>226.9339603960396</v>
       </c>
       <c r="Q58" t="n">
-        <v>151.2895049504951</v>
+        <v>151.2893069306931</v>
       </c>
       <c r="R58" t="n">
-        <v>151.2895049504951</v>
+        <v>151.2893069306931</v>
       </c>
       <c r="S58" t="n">
-        <v>151.2895049504951</v>
+        <v>151.2893069306931</v>
       </c>
     </row>
     <row r="59">
@@ -3832,55 +3832,55 @@
         <v>1328.09</v>
       </c>
       <c r="C60" t="n">
-        <v>5925.779999999999</v>
+        <v>5925.769999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>711.0935999999998</v>
+        <v>711.0923999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>592.5779999999999</v>
+        <v>592.5769999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>533.3201999999999</v>
+        <v>533.3192999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>533.3201999999999</v>
+        <v>533.3192999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>533.3201999999999</v>
+        <v>533.3192999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>414.8045999999999</v>
+        <v>414.8039</v>
       </c>
       <c r="J60" t="n">
-        <v>355.5467999999999</v>
+        <v>355.5461999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>296.2889999999999</v>
+        <v>296.2884999999999</v>
       </c>
       <c r="L60" t="n">
-        <v>296.2889999999999</v>
+        <v>296.2884999999999</v>
       </c>
       <c r="M60" t="n">
-        <v>651.8357999999998</v>
+        <v>651.8346999999999</v>
       </c>
       <c r="N60" t="n">
-        <v>237.0312</v>
+        <v>237.0308</v>
       </c>
       <c r="O60" t="n">
-        <v>237.0312</v>
+        <v>237.0308</v>
       </c>
       <c r="P60" t="n">
-        <v>177.7734</v>
+        <v>177.7731</v>
       </c>
       <c r="Q60" t="n">
-        <v>118.5156</v>
+        <v>118.5154</v>
       </c>
       <c r="R60" t="n">
-        <v>118.5156</v>
+        <v>118.5154</v>
       </c>
       <c r="S60" t="n">
-        <v>118.5156</v>
+        <v>118.5154</v>
       </c>
     </row>
     <row r="61">
@@ -3891,55 +3891,55 @@
         <v>1490.18</v>
       </c>
       <c r="C61" t="n">
-        <v>6151.52</v>
+        <v>6151.51</v>
       </c>
       <c r="D61" t="n">
-        <v>723.7082352941177</v>
+        <v>723.7070588235295</v>
       </c>
       <c r="E61" t="n">
-        <v>603.0901960784314</v>
+        <v>603.0892156862745</v>
       </c>
       <c r="F61" t="n">
-        <v>542.7811764705882</v>
+        <v>542.780294117647</v>
       </c>
       <c r="G61" t="n">
-        <v>542.7811764705882</v>
+        <v>542.780294117647</v>
       </c>
       <c r="H61" t="n">
-        <v>542.7811764705882</v>
+        <v>542.780294117647</v>
       </c>
       <c r="I61" t="n">
-        <v>482.4721568627451</v>
+        <v>482.4713725490196</v>
       </c>
       <c r="J61" t="n">
-        <v>361.8541176470588</v>
+        <v>361.8535294117647</v>
       </c>
       <c r="K61" t="n">
-        <v>301.5450980392157</v>
+        <v>301.5446078431373</v>
       </c>
       <c r="L61" t="n">
-        <v>241.2360784313726</v>
+        <v>241.2356862745098</v>
       </c>
       <c r="M61" t="n">
-        <v>663.3992156862746</v>
+        <v>663.3981372549021</v>
       </c>
       <c r="N61" t="n">
-        <v>301.5450980392157</v>
+        <v>301.5446078431373</v>
       </c>
       <c r="O61" t="n">
-        <v>241.2360784313726</v>
+        <v>241.2356862745098</v>
       </c>
       <c r="P61" t="n">
-        <v>180.9270588235294</v>
+        <v>180.9267647058824</v>
       </c>
       <c r="Q61" t="n">
-        <v>180.9270588235294</v>
+        <v>180.9267647058824</v>
       </c>
       <c r="R61" t="n">
-        <v>120.6180392156863</v>
+        <v>120.6178431372549</v>
       </c>
       <c r="S61" t="n">
-        <v>120.6180392156863</v>
+        <v>120.6178431372549</v>
       </c>
     </row>
     <row r="62">
@@ -4068,55 +4068,55 @@
         <v>2243.58</v>
       </c>
       <c r="C64" t="n">
-        <v>10096.13</v>
+        <v>10096.12</v>
       </c>
       <c r="D64" t="n">
-        <v>1121.792222222222</v>
+        <v>1121.791111111111</v>
       </c>
       <c r="E64" t="n">
-        <v>1019.811111111111</v>
+        <v>1019.810101010101</v>
       </c>
       <c r="F64" t="n">
-        <v>917.8299999999996</v>
+        <v>917.8290909090906</v>
       </c>
       <c r="G64" t="n">
-        <v>815.8488888888886</v>
+        <v>815.8480808080807</v>
       </c>
       <c r="H64" t="n">
-        <v>815.8488888888886</v>
+        <v>815.8480808080807</v>
       </c>
       <c r="I64" t="n">
-        <v>815.8488888888886</v>
+        <v>815.8480808080807</v>
       </c>
       <c r="J64" t="n">
-        <v>713.8677777777775</v>
+        <v>713.8670707070706</v>
       </c>
       <c r="K64" t="n">
-        <v>509.9055555555553</v>
+        <v>509.9050505050504</v>
       </c>
       <c r="L64" t="n">
-        <v>407.9244444444443</v>
+        <v>407.9240404040403</v>
       </c>
       <c r="M64" t="n">
-        <v>1121.792222222222</v>
+        <v>1121.791111111111</v>
       </c>
       <c r="N64" t="n">
-        <v>407.9244444444443</v>
+        <v>407.9240404040403</v>
       </c>
       <c r="O64" t="n">
-        <v>407.9244444444443</v>
+        <v>407.9240404040403</v>
       </c>
       <c r="P64" t="n">
-        <v>305.9433333333332</v>
+        <v>305.9430303030302</v>
       </c>
       <c r="Q64" t="n">
-        <v>305.9433333333332</v>
+        <v>305.9430303030302</v>
       </c>
       <c r="R64" t="n">
-        <v>203.9622222222222</v>
+        <v>203.9620202020202</v>
       </c>
       <c r="S64" t="n">
-        <v>203.9622222222222</v>
+        <v>203.9620202020202</v>
       </c>
     </row>
     <row r="65">
@@ -4124,58 +4124,58 @@
         <v>6802</v>
       </c>
       <c r="B65" t="n">
-        <v>6014.91</v>
+        <v>6014.9</v>
       </c>
       <c r="C65" t="n">
-        <v>31541.29999999999</v>
+        <v>31541.27</v>
       </c>
       <c r="D65" t="n">
-        <v>3784.955999999999</v>
+        <v>3784.952399999999</v>
       </c>
       <c r="E65" t="n">
-        <v>3154.129999999999</v>
+        <v>3154.126999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>3154.129999999999</v>
+        <v>3154.126999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>3154.129999999999</v>
+        <v>3154.126999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>2838.716999999999</v>
+        <v>2838.7143</v>
       </c>
       <c r="I65" t="n">
-        <v>2207.891</v>
+        <v>2207.8889</v>
       </c>
       <c r="J65" t="n">
-        <v>1892.477999999999</v>
+        <v>1892.4762</v>
       </c>
       <c r="K65" t="n">
-        <v>1577.065</v>
+        <v>1577.0635</v>
       </c>
       <c r="L65" t="n">
-        <v>1261.652</v>
+        <v>1261.6508</v>
       </c>
       <c r="M65" t="n">
-        <v>3469.542999999999</v>
+        <v>3469.539699999999</v>
       </c>
       <c r="N65" t="n">
-        <v>1261.652</v>
+        <v>1261.6508</v>
       </c>
       <c r="O65" t="n">
-        <v>946.2389999999997</v>
+        <v>946.2380999999998</v>
       </c>
       <c r="P65" t="n">
-        <v>946.2389999999997</v>
+        <v>946.2380999999998</v>
       </c>
       <c r="Q65" t="n">
-        <v>630.8259999999999</v>
+        <v>630.8253999999999</v>
       </c>
       <c r="R65" t="n">
-        <v>630.8259999999999</v>
+        <v>630.8253999999999</v>
       </c>
       <c r="S65" t="n">
-        <v>630.8259999999999</v>
+        <v>630.8253999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4358,55 +4358,55 @@
         <v>674.62</v>
       </c>
       <c r="C70" t="n">
-        <v>3035.809999999999</v>
+        <v>3035.799999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>340.7541836734692</v>
+        <v>340.7530612244897</v>
       </c>
       <c r="E70" t="n">
-        <v>278.7988775510203</v>
+        <v>278.7979591836734</v>
       </c>
       <c r="F70" t="n">
-        <v>247.8212244897958</v>
+        <v>247.8204081632653</v>
       </c>
       <c r="G70" t="n">
-        <v>247.8212244897958</v>
+        <v>247.8204081632653</v>
       </c>
       <c r="H70" t="n">
-        <v>247.8212244897958</v>
+        <v>247.8204081632653</v>
       </c>
       <c r="I70" t="n">
-        <v>216.8435714285714</v>
+        <v>216.8428571428571</v>
       </c>
       <c r="J70" t="n">
-        <v>216.8435714285714</v>
+        <v>216.8428571428571</v>
       </c>
       <c r="K70" t="n">
-        <v>185.8659183673469</v>
+        <v>185.8653061224489</v>
       </c>
       <c r="L70" t="n">
-        <v>154.8882653061224</v>
+        <v>154.8877551020408</v>
       </c>
       <c r="M70" t="n">
-        <v>309.7765306122448</v>
+        <v>309.7755102040816</v>
       </c>
       <c r="N70" t="n">
-        <v>123.9106122448979</v>
+        <v>123.9102040816326</v>
       </c>
       <c r="O70" t="n">
-        <v>123.9106122448979</v>
+        <v>123.9102040816326</v>
       </c>
       <c r="P70" t="n">
-        <v>92.93295918367343</v>
+        <v>92.93265306122446</v>
       </c>
       <c r="Q70" t="n">
-        <v>92.93295918367343</v>
+        <v>92.93265306122446</v>
       </c>
       <c r="R70" t="n">
-        <v>61.95530612244896</v>
+        <v>61.95510204081631</v>
       </c>
       <c r="S70" t="n">
-        <v>92.93295918367343</v>
+        <v>92.93265306122446</v>
       </c>
     </row>
     <row r="71">
@@ -4473,58 +4473,58 @@
         <v>2402</v>
       </c>
       <c r="B72" t="n">
-        <v>1326.93</v>
+        <v>1326.91</v>
       </c>
       <c r="C72" t="n">
-        <v>6859.4</v>
+        <v>6859.289999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>900.7292929292928</v>
+        <v>900.7148484848484</v>
       </c>
       <c r="E72" t="n">
-        <v>762.1555555555555</v>
+        <v>762.1433333333333</v>
       </c>
       <c r="F72" t="n">
-        <v>623.5818181818181</v>
+        <v>623.5718181818181</v>
       </c>
       <c r="G72" t="n">
-        <v>623.5818181818181</v>
+        <v>623.5718181818181</v>
       </c>
       <c r="H72" t="n">
-        <v>623.5818181818181</v>
+        <v>623.5718181818181</v>
       </c>
       <c r="I72" t="n">
-        <v>554.2949494949494</v>
+        <v>554.2860606060606</v>
       </c>
       <c r="J72" t="n">
-        <v>415.7212121212121</v>
+        <v>415.7145454545454</v>
       </c>
       <c r="K72" t="n">
-        <v>346.4343434343434</v>
+        <v>346.4287878787879</v>
       </c>
       <c r="L72" t="n">
-        <v>277.1474747474747</v>
+        <v>277.1430303030303</v>
       </c>
       <c r="M72" t="n">
-        <v>831.4424242424242</v>
+        <v>831.4290909090909</v>
       </c>
       <c r="N72" t="n">
-        <v>277.1474747474747</v>
+        <v>277.1430303030303</v>
       </c>
       <c r="O72" t="n">
-        <v>207.860606060606</v>
+        <v>207.8572727272727</v>
       </c>
       <c r="P72" t="n">
-        <v>138.5737373737373</v>
+        <v>138.5715151515151</v>
       </c>
       <c r="Q72" t="n">
-        <v>138.5737373737373</v>
+        <v>138.5715151515151</v>
       </c>
       <c r="R72" t="n">
-        <v>69.28686868686867</v>
+        <v>69.28575757575757</v>
       </c>
       <c r="S72" t="n">
-        <v>69.28686868686867</v>
+        <v>69.28575757575757</v>
       </c>
     </row>
     <row r="73">
@@ -4532,58 +4532,58 @@
         <v>6611</v>
       </c>
       <c r="B73" t="n">
-        <v>15.37</v>
+        <v>15.36</v>
       </c>
       <c r="C73" t="n">
-        <v>69.14999999999999</v>
+        <v>69.12999999999998</v>
       </c>
       <c r="D73" t="n">
-        <v>7.457352941176469</v>
+        <v>7.455196078431371</v>
       </c>
       <c r="E73" t="n">
-        <v>6.779411764705882</v>
+        <v>6.777450980392155</v>
       </c>
       <c r="F73" t="n">
-        <v>6.101470588235293</v>
+        <v>6.099705882352939</v>
       </c>
       <c r="G73" t="n">
-        <v>5.423529411764705</v>
+        <v>5.421960784313725</v>
       </c>
       <c r="H73" t="n">
-        <v>5.423529411764705</v>
+        <v>5.421960784313725</v>
       </c>
       <c r="I73" t="n">
-        <v>5.423529411764705</v>
+        <v>5.421960784313725</v>
       </c>
       <c r="J73" t="n">
-        <v>4.745588235294117</v>
+        <v>4.744215686274509</v>
       </c>
       <c r="K73" t="n">
-        <v>3.389705882352941</v>
+        <v>3.388725490196077</v>
       </c>
       <c r="L73" t="n">
-        <v>3.389705882352941</v>
+        <v>3.388725490196077</v>
       </c>
       <c r="M73" t="n">
-        <v>7.457352941176469</v>
+        <v>7.455196078431371</v>
       </c>
       <c r="N73" t="n">
-        <v>3.389705882352941</v>
+        <v>3.388725490196077</v>
       </c>
       <c r="O73" t="n">
-        <v>2.711764705882353</v>
+        <v>2.710980392156862</v>
       </c>
       <c r="P73" t="n">
-        <v>2.033823529411765</v>
+        <v>2.033235294117647</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.033823529411765</v>
+        <v>2.033235294117647</v>
       </c>
       <c r="R73" t="n">
-        <v>1.355882352941176</v>
+        <v>1.355490196078431</v>
       </c>
       <c r="S73" t="n">
-        <v>2.033823529411765</v>
+        <v>2.033235294117647</v>
       </c>
     </row>
     <row r="74">
@@ -4653,55 +4653,55 @@
         <v>675.04</v>
       </c>
       <c r="C75" t="n">
-        <v>2626.61</v>
+        <v>2626.599999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>286.0664356435643</v>
+        <v>286.0653465346534</v>
       </c>
       <c r="E75" t="n">
-        <v>234.0543564356435</v>
+        <v>234.0534653465346</v>
       </c>
       <c r="F75" t="n">
-        <v>208.0483168316831</v>
+        <v>208.0475247524752</v>
       </c>
       <c r="G75" t="n">
-        <v>208.0483168316831</v>
+        <v>208.0475247524752</v>
       </c>
       <c r="H75" t="n">
-        <v>234.0543564356435</v>
+        <v>234.0534653465346</v>
       </c>
       <c r="I75" t="n">
-        <v>208.0483168316831</v>
+        <v>208.0475247524752</v>
       </c>
       <c r="J75" t="n">
-        <v>182.0422772277228</v>
+        <v>182.0415841584158</v>
       </c>
       <c r="K75" t="n">
-        <v>130.030198019802</v>
+        <v>130.029702970297</v>
       </c>
       <c r="L75" t="n">
-        <v>104.0241584158416</v>
+        <v>104.0237623762376</v>
       </c>
       <c r="M75" t="n">
-        <v>260.0603960396039</v>
+        <v>260.059405940594</v>
       </c>
       <c r="N75" t="n">
-        <v>130.030198019802</v>
+        <v>130.029702970297</v>
       </c>
       <c r="O75" t="n">
-        <v>130.030198019802</v>
+        <v>130.029702970297</v>
       </c>
       <c r="P75" t="n">
-        <v>104.0241584158416</v>
+        <v>104.0237623762376</v>
       </c>
       <c r="Q75" t="n">
-        <v>78.01811881188117</v>
+        <v>78.01782178217819</v>
       </c>
       <c r="R75" t="n">
-        <v>52.01207920792078</v>
+        <v>52.0118811881188</v>
       </c>
       <c r="S75" t="n">
-        <v>78.01811881188117</v>
+        <v>78.01782178217819</v>
       </c>
     </row>
     <row r="76">
@@ -4709,58 +4709,58 @@
         <v>3604</v>
       </c>
       <c r="B76" t="n">
-        <v>719.0700000000001</v>
+        <v>719.0599999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>2797.34</v>
+        <v>2797.32</v>
       </c>
       <c r="D76" t="n">
-        <v>304.6607920792079</v>
+        <v>304.6586138613861</v>
       </c>
       <c r="E76" t="n">
-        <v>249.2679207920792</v>
+        <v>249.2661386138614</v>
       </c>
       <c r="F76" t="n">
-        <v>221.5714851485148</v>
+        <v>221.569900990099</v>
       </c>
       <c r="G76" t="n">
-        <v>221.5714851485148</v>
+        <v>221.569900990099</v>
       </c>
       <c r="H76" t="n">
-        <v>249.2679207920792</v>
+        <v>249.2661386138614</v>
       </c>
       <c r="I76" t="n">
-        <v>221.5714851485148</v>
+        <v>221.569900990099</v>
       </c>
       <c r="J76" t="n">
-        <v>193.8750495049505</v>
+        <v>193.8736633663366</v>
       </c>
       <c r="K76" t="n">
-        <v>138.4821782178218</v>
+        <v>138.4811881188118</v>
       </c>
       <c r="L76" t="n">
-        <v>110.7857425742574</v>
+        <v>110.7849504950495</v>
       </c>
       <c r="M76" t="n">
-        <v>276.9643564356435</v>
+        <v>276.9623762376237</v>
       </c>
       <c r="N76" t="n">
-        <v>138.4821782178218</v>
+        <v>138.4811881188118</v>
       </c>
       <c r="O76" t="n">
-        <v>138.4821782178218</v>
+        <v>138.4811881188118</v>
       </c>
       <c r="P76" t="n">
-        <v>110.7857425742574</v>
+        <v>110.7849504950495</v>
       </c>
       <c r="Q76" t="n">
-        <v>83.08930693069306</v>
+        <v>83.08871287128711</v>
       </c>
       <c r="R76" t="n">
-        <v>55.39287128712871</v>
+        <v>55.39247524752475</v>
       </c>
       <c r="S76" t="n">
-        <v>83.08930693069306</v>
+        <v>83.08871287128711</v>
       </c>
     </row>
     <row r="77">
@@ -4771,55 +4771,55 @@
         <v>308.54</v>
       </c>
       <c r="C77" t="n">
-        <v>1202.75</v>
+        <v>1202.74</v>
       </c>
       <c r="D77" t="n">
-        <v>130.9925742574257</v>
+        <v>130.9914851485148</v>
       </c>
       <c r="E77" t="n">
-        <v>107.1757425742574</v>
+        <v>107.1748514851485</v>
       </c>
       <c r="F77" t="n">
-        <v>95.26732673267325</v>
+        <v>95.26653465346533</v>
       </c>
       <c r="G77" t="n">
-        <v>95.26732673267325</v>
+        <v>95.26653465346533</v>
       </c>
       <c r="H77" t="n">
-        <v>107.1757425742574</v>
+        <v>107.1748514851485</v>
       </c>
       <c r="I77" t="n">
-        <v>95.26732673267325</v>
+        <v>95.26653465346533</v>
       </c>
       <c r="J77" t="n">
-        <v>83.3589108910891</v>
+        <v>83.35821782178218</v>
       </c>
       <c r="K77" t="n">
-        <v>59.54207920792078</v>
+        <v>59.54158415841583</v>
       </c>
       <c r="L77" t="n">
-        <v>47.63366336633663</v>
+        <v>47.63326732673266</v>
       </c>
       <c r="M77" t="n">
-        <v>119.0841584158416</v>
+        <v>119.0831683168317</v>
       </c>
       <c r="N77" t="n">
-        <v>59.54207920792078</v>
+        <v>59.54158415841583</v>
       </c>
       <c r="O77" t="n">
-        <v>59.54207920792078</v>
+        <v>59.54158415841583</v>
       </c>
       <c r="P77" t="n">
-        <v>47.63366336633663</v>
+        <v>47.63326732673266</v>
       </c>
       <c r="Q77" t="n">
-        <v>35.72524752475247</v>
+        <v>35.7249504950495</v>
       </c>
       <c r="R77" t="n">
-        <v>23.81683168316831</v>
+        <v>23.81663366336633</v>
       </c>
       <c r="S77" t="n">
-        <v>35.72524752475247</v>
+        <v>35.7249504950495</v>
       </c>
     </row>
     <row r="78">
@@ -4830,55 +4830,55 @@
         <v>1687.92</v>
       </c>
       <c r="C78" t="n">
-        <v>8812.68</v>
+        <v>8812.669999999998</v>
       </c>
       <c r="D78" t="n">
-        <v>1157.220606060606</v>
+        <v>1157.219292929293</v>
       </c>
       <c r="E78" t="n">
-        <v>979.1866666666666</v>
+        <v>979.1855555555555</v>
       </c>
       <c r="F78" t="n">
-        <v>801.1527272727272</v>
+        <v>801.151818181818</v>
       </c>
       <c r="G78" t="n">
-        <v>801.1527272727272</v>
+        <v>801.151818181818</v>
       </c>
       <c r="H78" t="n">
-        <v>801.1527272727272</v>
+        <v>801.151818181818</v>
       </c>
       <c r="I78" t="n">
-        <v>712.1357575757576</v>
+        <v>712.1349494949494</v>
       </c>
       <c r="J78" t="n">
-        <v>534.1018181818182</v>
+        <v>534.101212121212</v>
       </c>
       <c r="K78" t="n">
-        <v>445.0848484848485</v>
+        <v>445.0843434343435</v>
       </c>
       <c r="L78" t="n">
-        <v>356.0678787878788</v>
+        <v>356.0674747474747</v>
       </c>
       <c r="M78" t="n">
-        <v>1068.203636363636</v>
+        <v>1068.202424242424</v>
       </c>
       <c r="N78" t="n">
-        <v>356.0678787878788</v>
+        <v>356.0674747474747</v>
       </c>
       <c r="O78" t="n">
-        <v>267.0509090909091</v>
+        <v>267.050606060606</v>
       </c>
       <c r="P78" t="n">
-        <v>178.0339393939394</v>
+        <v>178.0337373737374</v>
       </c>
       <c r="Q78" t="n">
-        <v>178.0339393939394</v>
+        <v>178.0337373737374</v>
       </c>
       <c r="R78" t="n">
-        <v>89.0169696969697</v>
+        <v>89.01686868686868</v>
       </c>
       <c r="S78" t="n">
-        <v>89.0169696969697</v>
+        <v>89.01686868686868</v>
       </c>
     </row>
     <row r="79">
@@ -5007,55 +5007,55 @@
         <v>526.09</v>
       </c>
       <c r="C81" t="n">
-        <v>2049.03</v>
+        <v>2049.02</v>
       </c>
       <c r="D81" t="n">
-        <v>223.1616831683168</v>
+        <v>223.1605940594059</v>
       </c>
       <c r="E81" t="n">
-        <v>182.5868316831683</v>
+        <v>182.5859405940594</v>
       </c>
       <c r="F81" t="n">
-        <v>162.2994059405941</v>
+        <v>162.2986138613861</v>
       </c>
       <c r="G81" t="n">
-        <v>162.2994059405941</v>
+        <v>162.2986138613861</v>
       </c>
       <c r="H81" t="n">
-        <v>182.5868316831683</v>
+        <v>182.5859405940594</v>
       </c>
       <c r="I81" t="n">
-        <v>162.2994059405941</v>
+        <v>162.2986138613861</v>
       </c>
       <c r="J81" t="n">
-        <v>142.0119801980198</v>
+        <v>142.0112871287129</v>
       </c>
       <c r="K81" t="n">
-        <v>101.4371287128713</v>
+        <v>101.4366336633663</v>
       </c>
       <c r="L81" t="n">
-        <v>81.14970297029703</v>
+        <v>81.14930693069306</v>
       </c>
       <c r="M81" t="n">
-        <v>202.8742574257425</v>
+        <v>202.8732673267326</v>
       </c>
       <c r="N81" t="n">
-        <v>101.4371287128713</v>
+        <v>101.4366336633663</v>
       </c>
       <c r="O81" t="n">
-        <v>101.4371287128713</v>
+        <v>101.4366336633663</v>
       </c>
       <c r="P81" t="n">
-        <v>81.14970297029703</v>
+        <v>81.14930693069306</v>
       </c>
       <c r="Q81" t="n">
-        <v>60.86227722772276</v>
+        <v>60.86198019801979</v>
       </c>
       <c r="R81" t="n">
-        <v>40.57485148514851</v>
+        <v>40.57465346534653</v>
       </c>
       <c r="S81" t="n">
-        <v>60.86227722772276</v>
+        <v>60.86198019801979</v>
       </c>
     </row>
     <row r="82">
@@ -5066,55 +5066,55 @@
         <v>506.62</v>
       </c>
       <c r="C82" t="n">
-        <v>1973.549999999999</v>
+        <v>1973.54</v>
       </c>
       <c r="D82" t="n">
-        <v>214.9410891089108</v>
+        <v>214.9399999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>175.8608910891089</v>
+        <v>175.86</v>
       </c>
       <c r="F82" t="n">
-        <v>156.3207920792079</v>
+        <v>156.32</v>
       </c>
       <c r="G82" t="n">
-        <v>156.3207920792079</v>
+        <v>156.32</v>
       </c>
       <c r="H82" t="n">
-        <v>175.8608910891089</v>
+        <v>175.86</v>
       </c>
       <c r="I82" t="n">
-        <v>156.3207920792079</v>
+        <v>156.32</v>
       </c>
       <c r="J82" t="n">
-        <v>136.7806930693069</v>
+        <v>136.78</v>
       </c>
       <c r="K82" t="n">
-        <v>97.70049504950492</v>
+        <v>97.69999999999997</v>
       </c>
       <c r="L82" t="n">
-        <v>78.16039603960395</v>
+        <v>78.15999999999998</v>
       </c>
       <c r="M82" t="n">
-        <v>195.4009900990098</v>
+        <v>195.3999999999999</v>
       </c>
       <c r="N82" t="n">
-        <v>97.70049504950492</v>
+        <v>97.69999999999997</v>
       </c>
       <c r="O82" t="n">
-        <v>97.70049504950492</v>
+        <v>97.69999999999997</v>
       </c>
       <c r="P82" t="n">
-        <v>78.16039603960395</v>
+        <v>78.15999999999998</v>
       </c>
       <c r="Q82" t="n">
-        <v>58.62029702970295</v>
+        <v>58.61999999999998</v>
       </c>
       <c r="R82" t="n">
-        <v>39.08019801980198</v>
+        <v>39.07999999999999</v>
       </c>
       <c r="S82" t="n">
-        <v>58.62029702970295</v>
+        <v>58.61999999999998</v>
       </c>
     </row>
     <row r="83">
@@ -5122,58 +5122,58 @@
         <v>2501</v>
       </c>
       <c r="B83" t="n">
-        <v>2707.12</v>
+        <v>2707.11</v>
       </c>
       <c r="C83" t="n">
-        <v>12002.01</v>
+        <v>12001.99</v>
       </c>
       <c r="D83" t="n">
-        <v>1560.2613</v>
+        <v>1560.2587</v>
       </c>
       <c r="E83" t="n">
-        <v>1320.2211</v>
+        <v>1320.2189</v>
       </c>
       <c r="F83" t="n">
-        <v>1200.201</v>
+        <v>1200.199</v>
       </c>
       <c r="G83" t="n">
-        <v>1080.1809</v>
+        <v>1080.1791</v>
       </c>
       <c r="H83" t="n">
-        <v>1080.1809</v>
+        <v>1080.1791</v>
       </c>
       <c r="I83" t="n">
-        <v>960.1608</v>
+        <v>960.1592000000001</v>
       </c>
       <c r="J83" t="n">
-        <v>720.1206</v>
+        <v>720.1193999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>600.1005</v>
+        <v>600.0995</v>
       </c>
       <c r="L83" t="n">
-        <v>480.0804</v>
+        <v>480.0796</v>
       </c>
       <c r="M83" t="n">
-        <v>1440.2412</v>
+        <v>1440.2388</v>
       </c>
       <c r="N83" t="n">
-        <v>480.0804</v>
+        <v>480.0796</v>
       </c>
       <c r="O83" t="n">
-        <v>360.0603</v>
+        <v>360.0597</v>
       </c>
       <c r="P83" t="n">
-        <v>240.0402</v>
+        <v>240.0398</v>
       </c>
       <c r="Q83" t="n">
-        <v>240.0402</v>
+        <v>240.0398</v>
       </c>
       <c r="R83" t="n">
-        <v>120.0201</v>
+        <v>120.0199</v>
       </c>
       <c r="S83" t="n">
-        <v>120.0201</v>
+        <v>120.0199</v>
       </c>
     </row>
     <row r="84">
@@ -5181,58 +5181,58 @@
         <v>2504</v>
       </c>
       <c r="B84" t="n">
-        <v>1381.21</v>
+        <v>1381.2</v>
       </c>
       <c r="C84" t="n">
-        <v>5667.929999999998</v>
+        <v>5667.909999999998</v>
       </c>
       <c r="D84" t="n">
-        <v>694.032244897959</v>
+        <v>694.0297959183671</v>
       </c>
       <c r="E84" t="n">
-        <v>578.3602040816326</v>
+        <v>578.358163265306</v>
       </c>
       <c r="F84" t="n">
-        <v>520.5241836734692</v>
+        <v>520.5223469387753</v>
       </c>
       <c r="G84" t="n">
-        <v>462.688163265306</v>
+        <v>462.6865306122448</v>
       </c>
       <c r="H84" t="n">
-        <v>462.688163265306</v>
+        <v>462.6865306122448</v>
       </c>
       <c r="I84" t="n">
-        <v>462.688163265306</v>
+        <v>462.6865306122448</v>
       </c>
       <c r="J84" t="n">
-        <v>404.8521428571428</v>
+        <v>404.8507142857142</v>
       </c>
       <c r="K84" t="n">
-        <v>289.1801020408163</v>
+        <v>289.179081632653</v>
       </c>
       <c r="L84" t="n">
-        <v>231.344081632653</v>
+        <v>231.3432653061224</v>
       </c>
       <c r="M84" t="n">
-        <v>636.1962244897957</v>
+        <v>636.1939795918365</v>
       </c>
       <c r="N84" t="n">
-        <v>231.344081632653</v>
+        <v>231.3432653061224</v>
       </c>
       <c r="O84" t="n">
-        <v>231.344081632653</v>
+        <v>231.3432653061224</v>
       </c>
       <c r="P84" t="n">
-        <v>173.5080612244898</v>
+        <v>173.5074489795918</v>
       </c>
       <c r="Q84" t="n">
-        <v>115.6720408163265</v>
+        <v>115.6716326530612</v>
       </c>
       <c r="R84" t="n">
-        <v>57.83602040816325</v>
+        <v>57.8358163265306</v>
       </c>
       <c r="S84" t="n">
-        <v>115.6720408163265</v>
+        <v>115.6716326530612</v>
       </c>
     </row>
     <row r="85">
@@ -5243,55 +5243,55 @@
         <v>877.72</v>
       </c>
       <c r="C85" t="n">
-        <v>3980.749999999999</v>
+        <v>3980.739999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>361.8863636363635</v>
+        <v>361.8854545454544</v>
       </c>
       <c r="E85" t="n">
-        <v>321.6767676767676</v>
+        <v>321.6759595959595</v>
       </c>
       <c r="F85" t="n">
-        <v>281.4671717171717</v>
+        <v>281.4664646464646</v>
       </c>
       <c r="G85" t="n">
-        <v>281.4671717171717</v>
+        <v>281.4664646464646</v>
       </c>
       <c r="H85" t="n">
-        <v>281.4671717171717</v>
+        <v>281.4664646464646</v>
       </c>
       <c r="I85" t="n">
-        <v>281.4671717171717</v>
+        <v>281.4664646464646</v>
       </c>
       <c r="J85" t="n">
-        <v>241.2575757575757</v>
+        <v>241.2569696969696</v>
       </c>
       <c r="K85" t="n">
-        <v>241.2575757575757</v>
+        <v>241.2569696969696</v>
       </c>
       <c r="L85" t="n">
-        <v>241.2575757575757</v>
+        <v>241.2569696969696</v>
       </c>
       <c r="M85" t="n">
-        <v>321.6767676767676</v>
+        <v>321.6759595959595</v>
       </c>
       <c r="N85" t="n">
-        <v>241.2575757575757</v>
+        <v>241.2569696969696</v>
       </c>
       <c r="O85" t="n">
-        <v>201.0479797979798</v>
+        <v>201.0474747474747</v>
       </c>
       <c r="P85" t="n">
-        <v>160.8383838383838</v>
+        <v>160.8379797979798</v>
       </c>
       <c r="Q85" t="n">
-        <v>160.8383838383838</v>
+        <v>160.8379797979798</v>
       </c>
       <c r="R85" t="n">
-        <v>120.6287878787879</v>
+        <v>120.6284848484848</v>
       </c>
       <c r="S85" t="n">
-        <v>241.2575757575757</v>
+        <v>241.2569696969696</v>
       </c>
     </row>
     <row r="86">
@@ -5299,58 +5299,58 @@
         <v>303</v>
       </c>
       <c r="B86" t="n">
-        <v>497.69</v>
+        <v>490.18</v>
       </c>
       <c r="C86" t="n">
-        <v>2539.61</v>
+        <v>2226.82</v>
       </c>
       <c r="D86" t="n">
-        <v>228.5649</v>
+        <v>200.4138</v>
       </c>
       <c r="E86" t="n">
-        <v>203.1688</v>
+        <v>178.1456</v>
       </c>
       <c r="F86" t="n">
-        <v>177.7727</v>
+        <v>155.8774</v>
       </c>
       <c r="G86" t="n">
-        <v>177.7727</v>
+        <v>155.8774</v>
       </c>
       <c r="H86" t="n">
-        <v>177.7727</v>
+        <v>155.8774</v>
       </c>
       <c r="I86" t="n">
-        <v>203.1688</v>
+        <v>178.1456</v>
       </c>
       <c r="J86" t="n">
-        <v>152.3766</v>
+        <v>133.6092</v>
       </c>
       <c r="K86" t="n">
-        <v>177.7727</v>
+        <v>155.8774</v>
       </c>
       <c r="L86" t="n">
-        <v>126.9805</v>
+        <v>111.341</v>
       </c>
       <c r="M86" t="n">
-        <v>228.5649</v>
+        <v>200.4138</v>
       </c>
       <c r="N86" t="n">
-        <v>152.3766</v>
+        <v>133.6092</v>
       </c>
       <c r="O86" t="n">
-        <v>101.5844</v>
+        <v>89.07279999999999</v>
       </c>
       <c r="P86" t="n">
-        <v>101.5844</v>
+        <v>89.07279999999999</v>
       </c>
       <c r="Q86" t="n">
-        <v>101.5844</v>
+        <v>89.07279999999999</v>
       </c>
       <c r="R86" t="n">
-        <v>76.18829999999998</v>
+        <v>66.80459999999999</v>
       </c>
       <c r="S86" t="n">
-        <v>152.3766</v>
+        <v>133.6092</v>
       </c>
     </row>
     <row r="87">
@@ -5594,58 +5594,58 @@
         <v>6608</v>
       </c>
       <c r="B91" t="n">
-        <v>15.8</v>
+        <v>15.79</v>
       </c>
       <c r="C91" t="n">
-        <v>71.09</v>
+        <v>71.08</v>
       </c>
       <c r="D91" t="n">
-        <v>8.530799999999999</v>
+        <v>8.5296</v>
       </c>
       <c r="E91" t="n">
-        <v>8.530799999999999</v>
+        <v>8.5296</v>
       </c>
       <c r="F91" t="n">
-        <v>7.819900000000001</v>
+        <v>7.8188</v>
       </c>
       <c r="G91" t="n">
-        <v>7.109000000000001</v>
+        <v>7.108000000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>5.687200000000001</v>
+        <v>5.6864</v>
       </c>
       <c r="I91" t="n">
-        <v>4.976300000000001</v>
+        <v>4.9756</v>
       </c>
       <c r="J91" t="n">
-        <v>3.5545</v>
+        <v>3.554</v>
       </c>
       <c r="K91" t="n">
-        <v>3.5545</v>
+        <v>3.554</v>
       </c>
       <c r="L91" t="n">
-        <v>3.5545</v>
+        <v>3.554</v>
       </c>
       <c r="M91" t="n">
-        <v>8.530799999999999</v>
+        <v>8.5296</v>
       </c>
       <c r="N91" t="n">
-        <v>2.8436</v>
+        <v>2.8432</v>
       </c>
       <c r="O91" t="n">
-        <v>2.1327</v>
+        <v>2.1324</v>
       </c>
       <c r="P91" t="n">
-        <v>1.4218</v>
+        <v>1.4216</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.4218</v>
+        <v>1.4216</v>
       </c>
       <c r="R91" t="n">
-        <v>0.7109000000000001</v>
+        <v>0.7108</v>
       </c>
       <c r="S91" t="n">
-        <v>0.7109000000000001</v>
+        <v>0.7108</v>
       </c>
     </row>
     <row r="92">

--- a/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2030.xlsx
+++ b/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2030.xlsx
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>24647.67578060323</v>
+        <v>25017.97480219105</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>10447.34605085663</v>
+        <v>9908.902741580545</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>11191.94393096213</v>
+        <v>11360.0882186504</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
